--- a/outputs-r202/f__P3.xlsx
+++ b/outputs-r202/f__P3.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -579,6 +589,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,6 +636,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -663,6 +683,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -705,6 +730,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -747,6 +777,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -789,6 +824,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -831,6 +871,11 @@
           <t>g__UBA1217</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>g__UBA1217</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -873,6 +918,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -915,6 +965,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -957,6 +1012,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -999,6 +1059,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1041,6 +1106,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1083,6 +1153,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1125,6 +1200,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1167,6 +1247,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1209,6 +1294,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1251,6 +1341,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1293,6 +1388,11 @@
           <t>g__UBA1217</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>g__UBA1217</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1335,6 +1435,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1377,6 +1482,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1419,6 +1529,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1461,6 +1576,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1503,6 +1623,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1545,6 +1670,11 @@
           <t>g__UBA1711</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1583,6 +1713,11 @@
         <v>0.9999733921687589</v>
       </c>
       <c r="L27" t="inlineStr">
+        <is>
+          <t>g__UBA1711</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>g__UBA1711</t>
         </is>
